--- a/individual_results/avey/266.xlsx
+++ b/individual_results/avey/266.xlsx
@@ -558,7 +558,7 @@
         <v>0.2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -570,19 +570,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -703,31 +703,21 @@
       <c r="C4" t="n">
         <v>0.2857142857142858</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.2857142857142858</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0.5</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>0.4444444444444445</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>0.6666666666666666</v>
@@ -756,31 +746,21 @@
       <c r="C5" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.3846153846153846</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>0.3125</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>0.5555555555555556</v>
@@ -810,7 +790,7 @@
         <v>0.2754115523761866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17376534287144</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -822,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1377057761880933</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1377057761880933</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09810357436897517</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -846,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4680760659783655</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1111,9 +1091,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>6</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
